--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2449.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2449.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.048747615641254</v>
+        <v>1.937882781028748</v>
       </c>
       <c r="B1">
-        <v>2.226160087961144</v>
+        <v>2.105465173721313</v>
       </c>
       <c r="C1">
-        <v>6.931175062673495</v>
+        <v>2.403040409088135</v>
       </c>
       <c r="D1">
-        <v>2.879499470026136</v>
+        <v>3.692918300628662</v>
       </c>
       <c r="E1">
-        <v>0.9800741135392828</v>
+        <v>1.406932711601257</v>
       </c>
     </row>
   </sheetData>
